--- a/data/rec.xlsx
+++ b/data/rec.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,10 +687,10 @@
         <v>8.6</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>14</v>
